--- a/Data/EC/NIT-9010709841.xlsx
+++ b/Data/EC/NIT-9010709841.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{678C7DCB-719B-43E7-BB70-3F98532B1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32255546-476C-4ACD-BF89-06E7BDFF5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4EF727EC-C96C-4C5F-BB94-F48A90D9859C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B82A5C7-4CFD-4EFC-9F63-B5D9487771EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,6 +71,51 @@
     <t>LILIANA MIRANDA ROMERO</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
     <t>2404</t>
   </si>
   <si>
@@ -80,46 +125,10 @@
     <t>JAIME ALEJANDRO PEREZ DIAZ</t>
   </si>
   <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>9101030</t>
+  </si>
+  <si>
+    <t>ZAMIR NUÑEZ GARCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -163,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3392F2-4686-E92F-3E71-92EAD77BCE29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69368693-C366-0AA8-329F-19E9C735FA4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,32 +893,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF41148-7E5A-44D6-A700-9B4AEDA65FEB}">
-  <dimension ref="B2:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B1D74-6E9C-460A-B8EF-13F75FE495D2}">
+  <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -918,7 +927,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -929,7 +938,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -940,7 +949,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -951,10 +960,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -967,8 +976,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -983,15 +992,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1560000</v>
+        <v>2496000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -999,27 +1008,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1039,16 +1048,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1071,18 +1080,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1094,18 +1103,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1117,7 +1126,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1149,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,18 +1172,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1186,18 +1195,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1209,7 +1218,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1232,18 +1241,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1255,7 +1264,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1266,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1278,18 +1287,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1301,7 +1310,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1324,18 +1333,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1347,7 +1356,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1370,18 +1379,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1393,7 +1402,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1416,18 +1425,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1439,18 +1448,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1462,18 +1471,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1485,18 +1494,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1508,18 +1517,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1531,18 +1540,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1554,18 +1563,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1577,18 +1586,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1600,18 +1609,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1623,18 +1632,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1646,18 +1655,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1669,18 +1678,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1692,18 +1701,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1715,57 +1724,471 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="22" t="s">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="32"/>
-      <c r="H50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="32"/>
-      <c r="H51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="24">
+        <v>828116</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="H69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010709841.xlsx
+++ b/Data/EC/NIT-9010709841.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32255546-476C-4ACD-BF89-06E7BDFF5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B7C097-7C8B-48E7-BE01-24D84D2E4B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B82A5C7-4CFD-4EFC-9F63-B5D9487771EF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45DB015D-E762-4683-9457-8031A0574DFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,64 +71,61 @@
     <t>LILIANA MIRANDA ROMERO</t>
   </si>
   <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>73352688</t>
+  </si>
+  <si>
+    <t>JAIME ALEJANDRO PEREZ DIAZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>73352688</t>
-  </si>
-  <si>
-    <t>JAIME ALEJANDRO PEREZ DIAZ</t>
-  </si>
-  <si>
-    <t>9101030</t>
-  </si>
-  <si>
-    <t>ZAMIR NUÑEZ GARCIA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -172,7 +169,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69368693-C366-0AA8-329F-19E9C735FA4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041539C2-4A21-9AE1-8306-91F468F06F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,32 +890,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B1D74-6E9C-460A-B8EF-13F75FE495D2}">
-  <dimension ref="B2:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BF816E-B63D-4858-876C-716FFEC7F2E1}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -927,7 +924,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -938,7 +935,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -949,7 +946,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -960,10 +957,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -976,8 +973,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -992,15 +989,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2496000</v>
+        <v>1768000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,27 +1005,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1048,16 +1045,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1080,18 +1077,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1103,7 +1100,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1126,15 +1123,15 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1149,7 +1146,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1172,18 +1169,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1195,7 +1192,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1218,18 +1215,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1241,7 +1238,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1252,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1264,18 +1261,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1287,7 +1284,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1310,18 +1307,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1333,7 +1330,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1356,18 +1353,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1379,7 +1376,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1402,18 +1399,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1425,18 +1422,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1448,18 +1445,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1471,18 +1468,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1494,18 +1491,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1517,18 +1514,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1540,18 +1537,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1563,18 +1560,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1586,18 +1583,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1609,18 +1606,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1632,18 +1629,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1655,18 +1652,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1678,18 +1675,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1701,18 +1698,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1724,18 +1721,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1747,18 +1744,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1770,18 +1767,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1793,402 +1790,80 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F48" s="18">
         <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
+    <row r="49" spans="2:10">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
+      <c r="F49" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010709841.xlsx
+++ b/Data/EC/NIT-9010709841.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B7C097-7C8B-48E7-BE01-24D84D2E4B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F320129-8844-4985-98FC-5A356BA7C985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{45DB015D-E762-4683-9457-8031A0574DFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{661FDEFB-C2FD-4B2F-BACB-547B99BFBA9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -169,7 +172,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -239,7 +240,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,29 +436,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,19 +477,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{041539C2-4A21-9AE1-8306-91F468F06F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA98E20A-A305-DA36-4D5C-766920F49C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,80 +899,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BF816E-B63D-4858-876C-716FFEC7F2E1}">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443638B6-28DE-4B1D-98DD-7152ACA391C4}">
+  <dimension ref="B2:J57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -973,13 +982,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010709841</v>
       </c>
@@ -989,15 +998,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1768000</v>
+        <v>1872000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1005,27 +1014,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1045,16 +1054,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1064,20 +1073,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="F16" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1087,20 +1096,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="F17" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1110,20 +1119,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1133,20 +1142,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1156,20 +1165,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1179,20 +1188,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1202,20 +1211,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="F22" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1225,20 +1234,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="F23" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1248,20 +1257,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1271,20 +1280,20 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1294,20 +1303,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1317,20 +1326,20 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1340,20 +1349,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1363,20 +1372,20 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1386,20 +1395,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1409,20 +1418,20 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1432,20 +1441,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1455,20 +1464,20 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1478,20 +1487,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1501,20 +1510,20 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1524,20 +1533,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1547,20 +1556,20 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1570,20 +1579,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1593,20 +1602,20 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1616,20 +1625,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1639,20 +1648,20 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1662,20 +1671,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1685,20 +1694,20 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1708,20 +1717,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1731,20 +1740,20 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1754,20 +1763,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1777,20 +1786,20 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1800,70 +1809,116 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
+      <c r="F48" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F49" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="32" t="s">
+      <c r="F49" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" s="26">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="H56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="H55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="C57" s="34"/>
+      <c r="H57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
